--- a/biology/Médecine/Xavier_Emmanuelli/Xavier_Emmanuelli.xlsx
+++ b/biology/Médecine/Xavier_Emmanuelli/Xavier_Emmanuelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 François Xavier Emmanuelli, né le 23 août 1938 à Paris, est un médecin et un homme politique français. Fondateur du SAMU social de Paris, il est secrétaire d'État chargé de l'Action humanitaire d'urgence de 1995 à 1997 et président du Haut comité pour le logement des personnes défavorisées de 1997 à 2015.
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a des parents corses : son père, instituteur puis médecin, est originaire de Zalana et sa mère, institutrice, de Propriano. Résistants pendant la Seconde Guerre mondiale, ils cachent des enfants juifs et sont reconnus « Justes parmi les nations ». Il a deux sœurs, Anne Marie Emmanuelli-Orecchioni, professeur d'université (faculté de pharmacie), et Claire Emmanuelli-Zara, médecin gynécologue[1], et un frère, Jean-Marc Emmanuelli, gynécologue et chirurgien, président de l’Association des médecins corses fondée par leur père, après la Seconde Guerre mondiale, avec des médecins insulaires exilés à Paris[2].
-Pendant ses années d'études, il hésite entre la philosophie et la médecine. Militant communiste, il est copain de fac de Bernard Kouchner[3], avec qui il participe au service d'ordre antifasciste[3], puis à une expédition en Jordanie, en septembre 1970[4], cet anticolonialiste est un dessinateur occasionnel dans Hara-Kiri[1]. Avec Rony Brauman, il fait partie des nombreux membres du groupe d'amis de Cochin, qui ont une « forte propension » à  « vivre le militantisme comme une occasion d'aller » principalement « casser du faf »[3], contre lesquels il fait « fréquemment le coup de poing »[5],[6].
-Il opte finalement pour la médecine, étant diplômé en 1967 puis se spécialisant en neurologie puis en anesthésie-réanimation en 1976. Il est médecin généraliste des Houillères à l’hôpital des Mines de Freyming-Merlebach de 1972 à 1975 puis médecin dans la marine marchande pendant deux ans[7]. Entre-temps, il a intégré la direction de Médecins sans frontières, où il retrouve Rony Brauman qu'il a connu dans ses années militantes lorsqu'il était étudiant à l'hôpital Cochin et à qui il refuse par deux fois des missions lorsqu'il se présente en 1976 et 1978[8]. Il se forme ensuite à l’urgence et rejoint le SAMU sous la direction de son maître le professeur Pierre Huguenard, un des fondateurs du SAMU[1]. Il a trois enfants qui ont aussi suivi des études de médecine.
-Il fonde en 1993 le SAMU social de la ville de Paris. Depuis 1997, il est redevenu praticien hospitalier et est responsable du réseau national Souffrance psychique et précarité créé en avril 1998[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a des parents corses : son père, instituteur puis médecin, est originaire de Zalana et sa mère, institutrice, de Propriano. Résistants pendant la Seconde Guerre mondiale, ils cachent des enfants juifs et sont reconnus « Justes parmi les nations ». Il a deux sœurs, Anne Marie Emmanuelli-Orecchioni, professeur d'université (faculté de pharmacie), et Claire Emmanuelli-Zara, médecin gynécologue, et un frère, Jean-Marc Emmanuelli, gynécologue et chirurgien, président de l’Association des médecins corses fondée par leur père, après la Seconde Guerre mondiale, avec des médecins insulaires exilés à Paris.
+Pendant ses années d'études, il hésite entre la philosophie et la médecine. Militant communiste, il est copain de fac de Bernard Kouchner, avec qui il participe au service d'ordre antifasciste, puis à une expédition en Jordanie, en septembre 1970, cet anticolonialiste est un dessinateur occasionnel dans Hara-Kiri. Avec Rony Brauman, il fait partie des nombreux membres du groupe d'amis de Cochin, qui ont une « forte propension » à  « vivre le militantisme comme une occasion d'aller » principalement « casser du faf », contre lesquels il fait « fréquemment le coup de poing »,.
+Il opte finalement pour la médecine, étant diplômé en 1967 puis se spécialisant en neurologie puis en anesthésie-réanimation en 1976. Il est médecin généraliste des Houillères à l’hôpital des Mines de Freyming-Merlebach de 1972 à 1975 puis médecin dans la marine marchande pendant deux ans. Entre-temps, il a intégré la direction de Médecins sans frontières, où il retrouve Rony Brauman qu'il a connu dans ses années militantes lorsqu'il était étudiant à l'hôpital Cochin et à qui il refuse par deux fois des missions lorsqu'il se présente en 1976 et 1978. Il se forme ensuite à l’urgence et rejoint le SAMU sous la direction de son maître le professeur Pierre Huguenard, un des fondateurs du SAMU. Il a trois enfants qui ont aussi suivi des études de médecine.
+Il fonde en 1993 le SAMU social de la ville de Paris. Depuis 1997, il est redevenu praticien hospitalier et est responsable du réseau national Souffrance psychique et précarité créé en avril 1998.
 </t>
         </is>
       </c>
@@ -546,12 +560,14 @@
           <t>Principales fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cofondateur de Médecins sans frontières en 1971.
 Médecin-chef à la maison d'arrêt de Fleury-Mérogis de 1987 à 1993.
-Fondateur en 1993 du SAMU social de la ville de Paris dont il démissionne en juillet 2011, à la suite de l'annonce de l'État sur les réductions drastiques des moyens alloués à l'hébergement d'urgence[10]. Il poursuivra toutefois son action au Samusocial International.
-Secrétaire d'État auprès du Premier ministre, chargé de l’Action humanitaire d'urgence du 18 mai 1995 au 2 juin 1997 (premier et deuxième gouvernement Juppé)[11].
+Fondateur en 1993 du SAMU social de la ville de Paris dont il démissionne en juillet 2011, à la suite de l'annonce de l'État sur les réductions drastiques des moyens alloués à l'hébergement d'urgence. Il poursuivra toutefois son action au Samusocial International.
+Secrétaire d'État auprès du Premier ministre, chargé de l’Action humanitaire d'urgence du 18 mai 1995 au 2 juin 1997 (premier et deuxième gouvernement Juppé).
 Président du Haut comité pour le logement des personnes défavorisées du 29 août 1997 au 23 août 2015.
 Fondateur du Samusocial International (1998).
 Membre du conseil d'administration de l'OFPRA (mai 2009).
@@ -585,10 +601,12 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Grand officier de la Légion d'honneur en 2020[12] (commandeur en 2005 et membre du conseil de l’ordre national de la Légion d'honneur[13]).
- Grand officier de l'ordre national du Mérite en 2014[14].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand officier de la Légion d'honneur en 2020 (commandeur en 2005 et membre du conseil de l’ordre national de la Légion d'honneur).
+ Grand officier de l'ordre national du Mérite en 2014.</t>
         </is>
       </c>
     </row>
@@ -616,7 +634,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Accueillons les migrants! Ouvrons nos portes, ouvrons nos cœurs éditions de l'Archipel, 2017,  (ISBN 978-2809823189)
 Les Enfants des rues, Odile Jacob, 2016,  (ISBN 978-2738134608)
